--- a/xlsx/nfeature: 1024, hamming_tolerance: 50, k_knn: 30.xlsx
+++ b/xlsx/nfeature: 1024, hamming_tolerance: 50, k_knn: 30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,16 +428,16 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1.274</v>
+        <v>0.464</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D1" t="n">
-        <v>0.795</v>
+        <v>0.605</v>
       </c>
       <c r="E1" t="n">
-        <v>0.267</v>
+        <v>0.3</v>
       </c>
       <c r="F1" t="inlineStr">
         <is>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.208</v>
+        <v>0.874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D2" t="n">
         <v>0.823</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.188</v>
+        <v>0.853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.763</v>
+        <v>0.44</v>
       </c>
       <c r="C4" t="n">
         <v>0.001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.602</v>
+        <v>0.593</v>
       </c>
       <c r="E4" t="n">
         <v>0.3</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.72</v>
+        <v>0.442</v>
       </c>
       <c r="C5" t="n">
         <v>0.001</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.323</v>
+        <v>1.561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.607</v>
+        <v>0.63</v>
       </c>
       <c r="E6" t="n">
-        <v>0.533</v>
+        <v>0.7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -602,25 +602,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.718</v>
+        <v>1.155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.711</v>
+        <v>0.725</v>
       </c>
       <c r="E7" t="n">
-        <v>0.467</v>
+        <v>0.633</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.307</v>
+        <v>1.725</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="D8" t="n">
-        <v>0.912</v>
+        <v>0.908</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.967</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.578</v>
+        <v>1.21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.719</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.299</v>
+        <v>1.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D10" t="n">
-        <v>0.68</v>
+        <v>0.696</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.117</v>
+        <v>0.866</v>
       </c>
       <c r="C11" t="n">
         <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9</v>
+        <v>0.867</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.532</v>
+        <v>1.098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.908</v>
+        <v>0.909</v>
       </c>
       <c r="E12" t="n">
         <v>0.967</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.151</v>
+        <v>1.033</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="E13" t="n">
         <v>0.9330000000000001</v>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.332</v>
+        <v>0.923</v>
       </c>
       <c r="C14" t="n">
         <v>0.003</v>
@@ -834,25 +834,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.38</v>
+        <v>0.951</v>
       </c>
       <c r="C15" t="n">
         <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="E15" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Toni Ismail</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.081</v>
+        <v>0.714</v>
       </c>
       <c r="C16" t="n">
         <v>0.002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.878</v>
+        <v>0.901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.367</v>
+        <v>0.333</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.231</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>0.002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.749</v>
+        <v>0.764</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.596</v>
+        <v>1.03</v>
       </c>
       <c r="C18" t="n">
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.844</v>
+        <v>0.848</v>
       </c>
       <c r="E18" t="n">
         <v>0.667</v>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.959</v>
+        <v>0.628</v>
       </c>
       <c r="C19" t="n">
         <v>0.002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.666</v>
+        <v>0.794</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3</v>
+        <v>0.267</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.424</v>
+        <v>1.041</v>
       </c>
       <c r="C20" t="n">
         <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.752</v>
+        <v>0.74</v>
       </c>
       <c r="E20" t="n">
         <v>0.467</v>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9</v>
+        <v>0.513</v>
       </c>
       <c r="C21" t="n">
         <v>0.002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.655</v>
+        <v>0.665</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0.367</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.624</v>
+        <v>1.255</v>
       </c>
       <c r="C22" t="n">
         <v>0.004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.621</v>
+        <v>0.618</v>
       </c>
       <c r="E22" t="n">
-        <v>0.433</v>
+        <v>0.467</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.583</v>
+        <v>1.181</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="E23" t="n">
         <v>0.533</v>
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.831</v>
+        <v>1.439</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.861</v>
+        <v>0.849</v>
       </c>
       <c r="E24" t="n">
         <v>0.533</v>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.735</v>
+        <v>1.364</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D25" t="n">
-        <v>0.87</v>
+        <v>0.858</v>
       </c>
       <c r="E25" t="n">
         <v>0.5669999999999999</v>
@@ -1153,25 +1153,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.56</v>
+        <v>1.104</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D26" t="n">
-        <v>0.505</v>
+        <v>0.503</v>
       </c>
       <c r="E26" t="n">
-        <v>0.467</v>
+        <v>0.533</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Rafiqo Rapitasari</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -1182,25 +1182,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.856</v>
+        <v>1.375</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D27" t="n">
-        <v>0.884</v>
+        <v>0.866</v>
       </c>
       <c r="E27" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Rafiqo Rapitasari</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.889</v>
+        <v>1.476</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D28" t="n">
-        <v>0.876</v>
+        <v>0.865</v>
       </c>
       <c r="E28" t="n">
         <v>0.533</v>
@@ -1240,16 +1240,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.15</v>
+        <v>0.866</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D29" t="n">
-        <v>0.756</v>
+        <v>0.746</v>
       </c>
       <c r="E29" t="n">
-        <v>0.633</v>
+        <v>0.667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.938</v>
+        <v>1.559</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D30" t="n">
-        <v>0.831</v>
+        <v>0.838</v>
       </c>
       <c r="E30" t="n">
-        <v>0.867</v>
+        <v>0.9</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.101</v>
+        <v>0.662</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.771</v>
+        <v>0.773</v>
       </c>
       <c r="E31" t="n">
-        <v>0.267</v>
+        <v>0.233</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.768</v>
+        <v>0.754</v>
       </c>
       <c r="C32" t="n">
         <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="E32" t="n">
         <v>0.3</v>
@@ -1356,16 +1356,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.315</v>
+        <v>1.104</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.623</v>
+        <v>0.762</v>
       </c>
       <c r="E33" t="n">
-        <v>0.467</v>
+        <v>0.233</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1385,13 +1385,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.253</v>
+        <v>1.599</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="D34" t="n">
-        <v>0.673</v>
+        <v>0.764</v>
       </c>
       <c r="E34" t="n">
         <v>0.4</v>
@@ -1414,71 +1414,71 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.365</v>
+        <v>1.506</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D35" t="n">
-        <v>0.839</v>
+        <v>0.873</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7</v>
+        <v>0.267</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.495</v>
+        <v>1.289</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E36" t="n">
-        <v>0.533</v>
+        <v>0.267</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.642</v>
+        <v>0.783</v>
       </c>
       <c r="C37" t="n">
         <v>0.003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="E37" t="n">
         <v>0.533</v>
@@ -1497,17 +1497,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.416</v>
+        <v>1.061</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D38" t="n">
-        <v>0.805</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E38" t="n">
         <v>0.533</v>
@@ -1526,78 +1526,78 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.648</v>
+        <v>0.849</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.641</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4</v>
+        <v>0.533</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.487</v>
+        <v>3.218</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.487</v>
       </c>
       <c r="E40" t="n">
-        <v>0.533</v>
+        <v>0.267</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.644</v>
+        <v>3.058</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>0.436</v>
+        <v>0.337</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4</v>
+        <v>0.433</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.172</v>
+        <v>2.315</v>
       </c>
       <c r="C42" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="D42" t="n">
-        <v>0.427</v>
+        <v>0.408</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1642,20 +1642,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.643</v>
+        <v>2.516</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.426</v>
       </c>
       <c r="E43" t="n">
-        <v>0.267</v>
+        <v>0.3</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1671,27 +1671,56 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>TD_3.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>TD_4.png</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1.373</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B45" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.003</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="D45" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Benar</t>
         </is>
